--- a/resources/Workbook.xlsx
+++ b/resources/Workbook.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2445" windowWidth="21405" windowHeight="7560"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="21405" windowHeight="7560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
   <si>
     <t>hello, I am working in kiwiqa</t>
   </si>
@@ -73,6 +73,24 @@
   </si>
   <si>
     <t>384265</t>
+  </si>
+  <si>
+    <t>xzyabc</t>
+  </si>
+  <si>
+    <t>first name</t>
+  </si>
+  <si>
+    <t xml:space="preserve">last name </t>
+  </si>
+  <si>
+    <t>pqr</t>
+  </si>
+  <si>
+    <t>email address</t>
+  </si>
+  <si>
+    <t>pqr@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -428,7 +446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
@@ -546,12 +564,43 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="22.5703125" customWidth="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/resources/Workbook.xlsx
+++ b/resources/Workbook.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="35">
   <si>
     <t>hello, I am working in kiwiqa</t>
   </si>
@@ -91,6 +91,36 @@
   </si>
   <si>
     <t>pqr@gmail.com</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>Address</t>
+  </si>
+  <si>
+    <t>10, ABC Street , India</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>mumbai</t>
+  </si>
+  <si>
+    <t>Country</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Maharastra</t>
+  </si>
+  <si>
+    <t>Postal Code</t>
+  </si>
+  <si>
+    <t>256298</t>
   </si>
 </sst>
 </file>
@@ -447,7 +477,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -564,10 +594,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -600,8 +630,57 @@
         <v>24</v>
       </c>
     </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
